--- a/Hjemsendelse 14-11-2025.xlsx
+++ b/Hjemsendelse 14-11-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Kommuneandele"/>
@@ -1029,7 +1029,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1085,7 +1085,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2947,7 +2947,7 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3776,7 +3776,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3884,7 +3884,7 @@
     <col min="4" max="4" style="8" width="18.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>4</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>6</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>7</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>8</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>9</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>10</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>11</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>12</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4">
         <v>13</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4">
         <v>14</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4">
         <v>15</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4">
         <v>16</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4">
         <v>17</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4">
         <v>19</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4">
         <v>20</v>
       </c>

--- a/Hjemsendelse 14-11-2025.xlsx
+++ b/Hjemsendelse 14-11-2025.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansandersen/Desktop/UNI/Bachelor/Bachelor/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28494E20-F8A2-7146-91C1-6AF1A968C6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="11"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Kommuneandele"/>
-    <sheet r:id="rId2" sheetId="2" name="Antal_per_år"/>
-    <sheet r:id="rId3" sheetId="3" name="summary_stats"/>
-    <sheet r:id="rId4" sheetId="4" name="Kovariat_estimater"/>
-    <sheet r:id="rId5" sheetId="5" name="fake_co_med_second"/>
-    <sheet r:id="rId6" sheetId="6" name="storbyer_cl_sogn_lin"/>
-    <sheet r:id="rId7" sheetId="7" name="u_storbyer_cl_sogn_lin"/>
-    <sheet r:id="rId8" sheetId="8" name="Reduced_lin"/>
-    <sheet r:id="rId9" sheetId="9" name="Reduced_quad"/>
-    <sheet r:id="rId10" sheetId="10" name="First_ingen_cov"/>
-    <sheet r:id="rId11" sheetId="11" name="Main_hvert_år"/>
-    <sheet r:id="rId12" sheetId="12" name="Effect_lin_cov_u_outliers"/>
+    <sheet name="Kommuneandele" sheetId="1" r:id="rId1"/>
+    <sheet name="Antal_per_år" sheetId="2" r:id="rId2"/>
+    <sheet name="summary_stats" sheetId="3" r:id="rId3"/>
+    <sheet name="Kovariat_estimater" sheetId="4" r:id="rId4"/>
+    <sheet name="fake_co_med_second" sheetId="5" r:id="rId5"/>
+    <sheet name="storbyer_cl_sogn_lin" sheetId="6" r:id="rId6"/>
+    <sheet name="u_storbyer_cl_sogn_lin" sheetId="7" r:id="rId7"/>
+    <sheet name="Reduced_lin" sheetId="8" r:id="rId8"/>
+    <sheet name="Reduced_quad" sheetId="9" r:id="rId9"/>
+    <sheet name="First_ingen_cov" sheetId="10" r:id="rId10"/>
+    <sheet name="Main_hvert_år" sheetId="11" r:id="rId11"/>
+    <sheet name="Effect_lin_cov_u_outliers" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="327">
   <si>
     <t>bw</t>
   </si>
@@ -685,12 +691,6 @@
   </si>
   <si>
     <t>sd</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
   </si>
   <si>
     <t>bs</t>
@@ -1017,8 +1017,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1062,40 +1061,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1106,10 +1108,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1147,71 +1149,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1239,7 +1241,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1262,11 +1264,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1275,13 +1277,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1291,7 +1293,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1300,7 +1302,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1309,7 +1311,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1317,10 +1319,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1385,7 +1387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1393,802 +1395,802 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="5">
+        <v>22.959550857543899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3" t="s">
+      <c r="B3" s="5">
+        <v>9.6984004974365199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="5">
-        <v>22.9595508575439</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="5">
+        <v>8.8801813125610405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="5">
-        <v>9.69840049743652</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="5">
+        <v>5.5488214492797896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="5">
-        <v>8.88018131256104</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="5">
+        <v>2.9963123798370401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="B5" s="5">
-        <v>5.54882144927979</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2.99631237983704</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="B7" s="5">
         <v>2.61977314949036</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B8" s="5">
         <v>1.90195536613464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B9" s="5">
         <v>1.80141270160675</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B10" s="5">
-        <v>1.60910713672638</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+        <v>1.6091071367263801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B11" s="5">
         <v>1.5999026298523</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B12" s="5">
         <v>1.57002294063568</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B13" s="5">
         <v>1.52739858627319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row r="14" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B14" s="5">
         <v>1.46112537384033</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B15" s="5">
         <v>1.38054966926575</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B16" s="5">
         <v>1.36143243312836</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B17" s="5">
         <v>1.35633444786072</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B18" s="5">
         <v>1.18654489517212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1.1653034687042201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1.1266441345214799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="5">
-        <v>1.16530346870422</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="3" t="s">
+      <c r="B21" s="5">
+        <v>0.95076525211334195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="5">
-        <v>1.12664413452148</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="3" t="s">
+      <c r="B22" s="5">
+        <v>0.94311833381652799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B21" s="5">
-        <v>0.950765252113342</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="3" t="s">
+      <c r="B23" s="5">
+        <v>0.93802040815353405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B22" s="5">
-        <v>0.943118333816528</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="3" t="s">
+      <c r="B24" s="5">
+        <v>0.92017763853073098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B23" s="5">
-        <v>0.938020408153534</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="3" t="s">
+      <c r="B25" s="5">
+        <v>0.90006911754608199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.920177638530731</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.900069117546082</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="B26" s="5">
         <v>0.859852075576782</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.82629060745239302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.80773979425430298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B27" s="5">
-        <v>0.826290607452393</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="3" t="s">
+      <c r="B29" s="5">
+        <v>0.77814346551895097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B28" s="5">
-        <v>0.807739794254303</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="3" t="s">
+      <c r="B30" s="5">
+        <v>0.76355767250061002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B29" s="5">
-        <v>0.778143465518951</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="3" t="s">
+      <c r="B31" s="5">
+        <v>0.75180411338806197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B30" s="5">
-        <v>0.76355767250061</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="3" t="s">
+      <c r="B32" s="5">
+        <v>0.73042106628418002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B31" s="5">
-        <v>0.751804113388062</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="3" t="s">
+      <c r="B33" s="5">
+        <v>0.70988774299621604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B32" s="5">
-        <v>0.73042106628418</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="3" t="s">
+      <c r="B34" s="5">
+        <v>0.70011669397354104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B33" s="5">
-        <v>0.709887742996216</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="3" t="s">
+      <c r="B35" s="5">
+        <v>0.67675113677978505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.700116693973541</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.676751136779785</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="B36" s="5">
         <v>0.671369969844818</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row r="37" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B37" s="5">
-        <v>0.662448585033417</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+        <v>0.66244858503341697</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B38" s="5">
         <v>0.645030617713928</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row r="39" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.60736256837844904</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.59617543220519997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B39" s="5">
-        <v>0.607362568378449</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="3" t="s">
+      <c r="B41" s="5">
+        <v>0.55992341041564897</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B40" s="5">
-        <v>0.5961754322052</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="3" t="s">
+      <c r="B42" s="5">
+        <v>0.50809437036514304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B41" s="5">
-        <v>0.559923410415649</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="3" t="s">
+      <c r="B43" s="5">
+        <v>0.49662402272224399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B42" s="5">
-        <v>0.508094370365143</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="3" t="s">
+      <c r="B44" s="5">
+        <v>0.48600333929061901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.496624022722244</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0.486003339290619</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="B45" s="5">
         <v>0.479489296674728</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row r="46" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.46943503618240401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.40599402785301197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B46" s="5">
-        <v>0.469435036182404</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="3" t="s">
+      <c r="B48" s="5">
+        <v>0.40471956133842502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B47" s="5">
-        <v>0.405994027853012</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="3" t="s">
+      <c r="B49" s="5">
+        <v>0.40217059850692799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B48" s="5">
-        <v>0.404719561338425</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="3" t="s">
+      <c r="B50" s="5">
+        <v>0.35034155845642101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.402170598506928</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B50" s="5">
-        <v>0.350341558456421</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="B51" s="5">
         <v>0.342269837856293</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row r="52" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B52" s="5">
-        <v>0.328958541154861</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+        <v>0.32895854115486101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B53" s="5">
         <v>0.305876225233078</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row r="54" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B54" s="5">
-        <v>0.301203101873398</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+        <v>0.30120310187339799</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B55" s="5">
         <v>0.299362182617187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row r="56" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.29723805189132702</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.28194424510002097</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B56" s="5">
-        <v>0.297238051891327</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="3" t="s">
+      <c r="B58" s="5">
+        <v>0.25843709707260099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B57" s="5">
-        <v>0.281944245100021</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="3" t="s">
+      <c r="B59" s="5">
+        <v>0.25518006086349498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B58" s="5">
-        <v>0.258437097072601</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="3" t="s">
+      <c r="B60" s="5">
+        <v>0.25220626592636097</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="B59" s="5">
-        <v>0.255180060863495</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B60" s="5">
-        <v>0.252206265926361</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="B61" s="5">
         <v>0.239036604762077</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row r="62" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0.22374279797077201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0.22260992228984799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B62" s="5">
-        <v>0.223742797970772</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="3" t="s">
+      <c r="B64" s="5">
+        <v>0.21793681383132901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="B63" s="5">
-        <v>0.222609922289848</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B64" s="5">
-        <v>0.217936813831329</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="B65" s="5">
         <v>0.21666231751442</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+    <row r="66" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0.21071472764015201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.20151011645793901</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B66" s="5">
-        <v>0.210714727640152</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="3" t="s">
+      <c r="B68" s="5">
+        <v>0.19782827794551899</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0.201510116457939</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B68" s="5">
-        <v>0.197828277945519</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="B69" s="5">
         <v>0.183667346835136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+    <row r="70" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B70" s="5">
-        <v>0.178427800536156</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+        <v>0.17842780053615601</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B71" s="5">
         <v>0.177861362695694</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+    <row r="72" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B72" s="5">
         <v>0.177011698484421</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+    <row r="73" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B73" s="5">
         <v>0.176162049174309</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+    <row r="74" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.17502917349338501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0.16639100015163399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B74" s="5">
-        <v>0.175029173493385</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
-      <c r="A75" s="3" t="s">
+      <c r="B76" s="5">
+        <v>0.16185949742794001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0.166391000151634</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
-      <c r="A76" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0.16185949742794</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
-      <c r="A77" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="B77" s="5">
         <v>0.160301804542542</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    <row r="78" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.15945214033126801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.15661995112895999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="B78" s="5">
-        <v>0.159452140331268</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
-      <c r="A79" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0.15661995112896</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
-      <c r="A80" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="B80" s="5">
         <v>0.155345469713211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+    <row r="81" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B81" s="5">
-        <v>0.153362944722176</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+        <v>0.15336294472217599</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B82" s="5">
         <v>0.143875107169151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+    <row r="83" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.14033487439155601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.13934361934661901</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="B83" s="5">
-        <v>0.140334874391556</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
-      <c r="A84" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B84" s="5">
-        <v>0.139343619346619</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
-      <c r="A85" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="B85" s="5">
         <v>0.112721055746079</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+    <row r="86" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B86" s="5">
         <v>0.111304961144924</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+    <row r="87" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.11102174222469301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.10238356888294201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B87" s="5">
-        <v>0.111021742224693</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
-      <c r="A88" s="3" t="s">
+      <c r="B89" s="5">
+        <v>9.4170227646827698E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B88" s="5">
-        <v>0.102383568882942</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
-      <c r="A89" s="3" t="s">
+      <c r="B90" s="5">
+        <v>8.9638724923133906E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B89" s="5">
-        <v>0.0941702276468277</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
-      <c r="A90" s="3" t="s">
+      <c r="B91" s="5">
+        <v>7.4344918131828294E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B90" s="5">
-        <v>0.0896387249231339</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
-      <c r="A91" s="3" t="s">
+      <c r="B92" s="5">
+        <v>6.3865825533866896E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B91" s="5">
-        <v>0.0743449181318283</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
-      <c r="A92" s="3" t="s">
+      <c r="B93" s="5">
+        <v>5.50860427320004E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B92" s="5">
-        <v>0.0638658255338669</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
-      <c r="A93" s="3" t="s">
+      <c r="B94" s="5">
+        <v>4.5598216354847003E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B93" s="5">
-        <v>0.0550860427320004</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
-      <c r="A94" s="3" t="s">
+      <c r="B95" s="5">
+        <v>4.4890169054269798E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B94" s="5">
-        <v>0.045598216354847</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
-      <c r="A95" s="3" t="s">
+      <c r="B96" s="5">
+        <v>4.0641885250806802E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B95" s="5">
-        <v>0.0448901690542698</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
-      <c r="A96" s="3" t="s">
+      <c r="B97" s="5">
+        <v>3.8659356534481E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B96" s="5">
-        <v>0.0406418852508068</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
-      <c r="A97" s="3" t="s">
+      <c r="B98" s="5">
+        <v>3.6818434018641702E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B97" s="5">
-        <v>0.038659356534481</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
-      <c r="A98" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B98" s="5">
-        <v>0.00368184340186417</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
-      <c r="A99" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="B99" s="5">
-        <v>0.00155770301353186</v>
+        <v>1.55770301353186E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2197,7 +2199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2205,15 +2207,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +2229,7 @@
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>5</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>5</v>
       </c>
@@ -2255,7 +2257,7 @@
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -2269,7 +2271,7 @@
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>20</v>
       </c>
@@ -2297,7 +2299,7 @@
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>20</v>
       </c>
@@ -2317,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2325,19 +2327,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2008</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2008</v>
       </c>
@@ -2415,7 +2416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2009</v>
       </c>
@@ -2441,7 +2442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2010</v>
       </c>
@@ -2519,7 +2520,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2011</v>
       </c>
@@ -2545,7 +2546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2011</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2012</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2012</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2013</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2013</v>
       </c>
@@ -2675,7 +2676,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2014</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2014</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2015</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2015</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2016</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2016</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2017</v>
       </c>
@@ -2857,7 +2858,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2017</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2018</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2018</v>
       </c>
@@ -2941,23 +2942,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2971,35 +2972,35 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>2.51947808265686</v>
+        <v>2.5194780826568599</v>
       </c>
       <c r="C2" s="5">
-        <v>1.00661253929138</v>
+        <v>1.0066125392913801</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>4</v>
       </c>
       <c r="B3" s="5">
-        <v>1.49798715114594</v>
+        <v>1.4979871511459399</v>
       </c>
       <c r="C3" s="5">
-        <v>0.787021815776825</v>
+        <v>0.78702181577682495</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -3007,41 +3008,41 @@
         <v>0.396341532468796</v>
       </c>
       <c r="C4" s="5">
-        <v>0.831719398498535</v>
+        <v>0.83171939849853505</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>6</v>
       </c>
       <c r="B5" s="5">
-        <v>-0.803955316543579</v>
+        <v>-0.80395531654357899</v>
       </c>
       <c r="C5" s="5">
-        <v>1.17565679550171</v>
+        <v>1.1756567955017101</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>-1.21526169776917</v>
+        <v>-1.2152616977691699</v>
       </c>
       <c r="C6" s="5">
-        <v>1.09878063201904</v>
+        <v>1.0987806320190401</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>8</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>9</v>
       </c>
@@ -3069,35 +3070,35 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10</v>
       </c>
       <c r="B9" s="5">
-        <v>-0.935525119304657</v>
+        <v>-0.93552511930465698</v>
       </c>
       <c r="C9" s="5">
-        <v>0.687574088573456</v>
+        <v>0.68757408857345603</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>11</v>
       </c>
       <c r="B10" s="5">
-        <v>-1.19342744350433</v>
+        <v>-1.1934274435043299</v>
       </c>
       <c r="C10" s="5">
-        <v>0.747024714946747</v>
+        <v>0.74702471494674705</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>12</v>
       </c>
@@ -3105,41 +3106,41 @@
         <v>-1.20260226726532</v>
       </c>
       <c r="C11" s="5">
-        <v>0.737040460109711</v>
+        <v>0.73704046010971103</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>13</v>
       </c>
       <c r="B12" s="5">
-        <v>-1.50159680843353</v>
+        <v>-1.5015968084335301</v>
       </c>
       <c r="C12" s="5">
-        <v>0.781399548053741</v>
+        <v>0.78139954805374101</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>14</v>
       </c>
       <c r="B13" s="5">
-        <v>-1.09996581077576</v>
+        <v>-1.0999658107757599</v>
       </c>
       <c r="C13" s="5">
-        <v>0.775830507278442</v>
+        <v>0.77583050727844205</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row r="14" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>15</v>
       </c>
@@ -3147,27 +3148,27 @@
         <v>-1.73493504524231</v>
       </c>
       <c r="C14" s="5">
-        <v>0.882584452629089</v>
+        <v>0.88258445262908902</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>16</v>
       </c>
       <c r="B15" s="5">
-        <v>-2.4827618598938</v>
+        <v>-2.4827618598938002</v>
       </c>
       <c r="C15" s="5">
-        <v>0.951275825500488</v>
+        <v>0.95127582550048795</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>17</v>
       </c>
@@ -3175,49 +3176,49 @@
         <v>-3.5278205871582</v>
       </c>
       <c r="C16" s="5">
-        <v>1.17903423309326</v>
+        <v>1.1790342330932599</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>18</v>
       </c>
       <c r="B17" s="5">
-        <v>-4.55592632293701</v>
+        <v>-4.5559263229370099</v>
       </c>
       <c r="C17" s="5">
-        <v>1.4574282169342</v>
+        <v>1.4574282169342001</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>19</v>
       </c>
       <c r="B18" s="5">
-        <v>-5.67996072769165</v>
+        <v>-5.6799607276916504</v>
       </c>
       <c r="C18" s="5">
-        <v>1.6944774389267</v>
+        <v>1.6944774389267001</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>20</v>
       </c>
       <c r="B19" s="5">
-        <v>-7.63879537582397</v>
+        <v>-7.6387953758239702</v>
       </c>
       <c r="C19" s="5">
-        <v>2.27292275428772</v>
+        <v>2.2729227542877202</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>4</v>
@@ -3229,7 +3230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3237,25 +3238,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2007</v>
       </c>
@@ -3263,10 +3264,10 @@
         <v>52976</v>
       </c>
       <c r="C2" s="5">
-        <v>7.50189733505249</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+        <v>7.5018973350524902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2008</v>
       </c>
@@ -3274,10 +3275,10 @@
         <v>50545</v>
       </c>
       <c r="C3" s="5">
-        <v>7.1576452255249</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+        <v>7.1576452255248997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2009</v>
       </c>
@@ -3285,10 +3286,10 @@
         <v>53173</v>
       </c>
       <c r="C4" s="5">
-        <v>7.52979469299316</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+        <v>7.5297946929931596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2010</v>
       </c>
@@ -3296,10 +3297,10 @@
         <v>59226</v>
       </c>
       <c r="C5" s="5">
-        <v>8.38695621490479</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+        <v>8.3869562149047905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2011</v>
       </c>
@@ -3307,10 +3308,10 @@
         <v>59915</v>
       </c>
       <c r="C6" s="5">
-        <v>8.48452472686768</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+        <v>8.4845247268676793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2012</v>
       </c>
@@ -3318,10 +3319,10 @@
         <v>62091</v>
       </c>
       <c r="C7" s="5">
-        <v>8.7926664352417</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+        <v>8.7926664352416992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2013</v>
       </c>
@@ -3329,10 +3330,10 @@
         <v>65304</v>
       </c>
       <c r="C8" s="5">
-        <v>9.24765777587891</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+        <v>9.2476577758789098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2014</v>
       </c>
@@ -3340,10 +3341,10 @@
         <v>68334</v>
       </c>
       <c r="C9" s="5">
-        <v>9.67673397064209</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+        <v>9.6767339706420898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2015</v>
       </c>
@@ -3351,10 +3352,10 @@
         <v>71191</v>
       </c>
       <c r="C10" s="5">
-        <v>10.0813121795654</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+        <v>10.081312179565399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2016</v>
       </c>
@@ -3362,10 +3363,10 @@
         <v>61222</v>
       </c>
       <c r="C11" s="5">
-        <v>8.6696081161499</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+        <v>8.6696081161499006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2017</v>
       </c>
@@ -3373,10 +3374,10 @@
         <v>69273</v>
       </c>
       <c r="C12" s="5">
-        <v>9.80970573425293</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+        <v>9.8097057342529297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2018</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>32918</v>
       </c>
       <c r="C13" s="5">
-        <v>4.66149711608887</v>
+        <v>4.6614971160888699</v>
       </c>
     </row>
   </sheetData>
@@ -3393,24 +3394,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="8" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>217</v>
       </c>
@@ -3420,33 +3423,25 @@
       <c r="C1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="B2" s="5">
         <v>594.94970703125</v>
       </c>
       <c r="C2" s="5">
-        <v>268.552398681641</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>6987</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+        <v>268.55239868164102</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B3" s="5">
         <v>3896.33642578125</v>
@@ -3454,50 +3449,38 @@
       <c r="C3" s="5">
         <v>2060.96435546875</v>
       </c>
-      <c r="D3" s="4">
-        <v>1506.25</v>
-      </c>
-      <c r="E3" s="4">
-        <v>634400</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="5">
+        <v>58.613746643066399</v>
+      </c>
+      <c r="C4" s="5">
+        <v>19.988742828369102</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="5">
+        <v>35.870601654052699</v>
+      </c>
+      <c r="C5" s="5">
+        <v>14.459888458251999</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="B4" s="5">
-        <v>58.6137466430664</v>
-      </c>
-      <c r="C4" s="5">
-        <v>19.9887428283691</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="5">
-        <v>35.8706016540527</v>
-      </c>
-      <c r="C5" s="5">
-        <v>14.459888458252</v>
-      </c>
-      <c r="D5" s="4">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="B6" s="5">
         <v>14893.6328125</v>
@@ -3505,12 +3488,8 @@
       <c r="C6" s="5">
         <v>6770.46533203125</v>
       </c>
-      <c r="D6" s="4">
-        <v>-245844.828125</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1043160.875</v>
-      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3518,7 +3497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3526,21 +3505,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="5.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3572,7 +3551,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>5</v>
       </c>
@@ -3604,7 +3583,7 @@
         <v>183</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>5</v>
       </c>
@@ -3636,7 +3615,7 @@
         <v>192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -3668,7 +3647,7 @@
         <v>196</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -3700,7 +3679,7 @@
         <v>204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>20</v>
       </c>
@@ -3732,7 +3711,7 @@
         <v>208</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>20</v>
       </c>
@@ -3770,7 +3749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3778,14 +3757,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="5.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
@@ -3796,7 +3775,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>61</v>
       </c>
@@ -3807,7 +3786,7 @@
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>60.5</v>
       </c>
@@ -3818,7 +3797,7 @@
         <v>165</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>65.5</v>
       </c>
@@ -3829,7 +3808,7 @@
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>65.5</v>
       </c>
@@ -3840,7 +3819,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>70.5</v>
       </c>
@@ -3851,7 +3830,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>70.5</v>
       </c>
@@ -3868,7 +3847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3876,15 +3855,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3898,7 +3876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -3906,18 +3884,18 @@
         <v>13.3245439529419</v>
       </c>
       <c r="C2" s="5">
-        <v>82.7083053588867</v>
+        <v>82.708305358886705</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>4</v>
       </c>
       <c r="B3" s="5">
-        <v>20.9331188201904</v>
+        <v>20.933118820190401</v>
       </c>
       <c r="C3" s="5">
         <v>43.0904541015625</v>
@@ -3926,49 +3904,49 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>5</v>
       </c>
       <c r="B4" s="5">
-        <v>9.00146675109863</v>
+        <v>9.0014667510986293</v>
       </c>
       <c r="C4" s="5">
-        <v>7.78360986709595</v>
+        <v>7.7836098670959499</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>6</v>
       </c>
       <c r="B5" s="5">
-        <v>3.44130873680115</v>
+        <v>3.4413087368011501</v>
       </c>
       <c r="C5" s="5">
-        <v>2.06740212440491</v>
+        <v>2.0674021244049099</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>2.44765901565552</v>
+        <v>2.4476590156555198</v>
       </c>
       <c r="C6" s="5">
-        <v>1.73367345333099</v>
+        <v>1.7336734533309901</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>8</v>
       </c>
@@ -3976,46 +3954,46 @@
         <v>1.79647505283356</v>
       </c>
       <c r="C7" s="5">
-        <v>1.6803332567215</v>
+        <v>1.6803332567214999</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>9</v>
       </c>
       <c r="B8" s="5">
-        <v>0.717053294181824</v>
+        <v>0.71705329418182395</v>
       </c>
       <c r="C8" s="5">
-        <v>1.72101056575775</v>
+        <v>1.7210105657577499</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10</v>
       </c>
       <c r="B9" s="5">
-        <v>0.316691786050796</v>
+        <v>0.31669178605079601</v>
       </c>
       <c r="C9" s="5">
-        <v>2.353435754776</v>
+        <v>2.3534357547760001</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>11</v>
       </c>
       <c r="B10" s="5">
-        <v>0.328135073184967</v>
+        <v>0.32813507318496699</v>
       </c>
       <c r="C10" s="5">
         <v>1.91643071174622</v>
@@ -4024,91 +4002,91 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>12</v>
       </c>
       <c r="B11" s="5">
-        <v>-0.327285468578339</v>
+        <v>-0.32728546857833901</v>
       </c>
       <c r="C11" s="5">
-        <v>1.99393665790558</v>
+        <v>1.9939366579055799</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>13</v>
       </c>
       <c r="B12" s="5">
-        <v>0.358396172523499</v>
+        <v>0.35839617252349898</v>
       </c>
       <c r="C12" s="5">
-        <v>1.4978734254837</v>
+        <v>1.4978734254837001</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>14</v>
       </c>
       <c r="B13" s="5">
-        <v>-0.457181751728058</v>
+        <v>-0.45718175172805797</v>
       </c>
       <c r="C13" s="5">
-        <v>1.83697867393494</v>
+        <v>1.8369786739349401</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>15</v>
       </c>
       <c r="B14" s="5">
-        <v>-0.114958189427853</v>
+        <v>-0.11495818942785301</v>
       </c>
       <c r="C14" s="5">
-        <v>1.63142955303192</v>
+        <v>1.6314295530319201</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>16</v>
       </c>
       <c r="B15" s="5">
-        <v>0.14965982735157</v>
+        <v>0.14965982735156999</v>
       </c>
       <c r="C15" s="5">
-        <v>1.23544871807098</v>
+        <v>1.2354487180709799</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>17</v>
       </c>
       <c r="B16" s="5">
-        <v>0.801479399204254</v>
+        <v>0.80147939920425404</v>
       </c>
       <c r="C16" s="5">
-        <v>0.970899820327759</v>
+        <v>0.97089982032775901</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -4116,13 +4094,13 @@
         <v>1.3281923532486</v>
       </c>
       <c r="C17" s="5">
-        <v>0.814360439777374</v>
+        <v>0.81436043977737405</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>19</v>
       </c>
@@ -4136,7 +4114,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>20</v>
       </c>
@@ -4144,7 +4122,7 @@
         <v>0.910128533840179</v>
       </c>
       <c r="C19" s="5">
-        <v>0.717632293701172</v>
+        <v>0.71763229370117199</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>161</v>
@@ -4156,7 +4134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4164,15 +4142,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4186,21 +4164,21 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>-0.259196251630783</v>
+        <v>-0.25919625163078303</v>
       </c>
       <c r="C2" s="5">
-        <v>7.28512907028198</v>
+        <v>7.2851290702819798</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>4</v>
       </c>
@@ -4208,13 +4186,13 @@
         <v>-2.34872269630432</v>
       </c>
       <c r="C3" s="5">
-        <v>5.33029699325562</v>
+        <v>5.3302969932556197</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -4222,13 +4200,13 @@
         <v>1.79704248905182</v>
       </c>
       <c r="C4" s="5">
-        <v>1.11718475818634</v>
+        <v>1.1171847581863401</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>6</v>
       </c>
@@ -4242,82 +4220,82 @@
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>1.44079327583313</v>
+        <v>1.4407932758331301</v>
       </c>
       <c r="C6" s="5">
-        <v>1.20008623600006</v>
+        <v>1.2000862360000599</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>8</v>
       </c>
       <c r="B7" s="5">
-        <v>0.660729467868805</v>
+        <v>0.66072946786880504</v>
       </c>
       <c r="C7" s="5">
-        <v>2.6527693271637</v>
+        <v>2.6527693271636998</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>9</v>
       </c>
       <c r="B8" s="5">
-        <v>-0.62493234872818</v>
+        <v>-0.62493234872818004</v>
       </c>
       <c r="C8" s="5">
-        <v>2.45285153388977</v>
+        <v>2.4528515338897701</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10</v>
       </c>
       <c r="B9" s="5">
-        <v>-2.48993396759033</v>
+        <v>-2.4899339675903298</v>
       </c>
       <c r="C9" s="5">
-        <v>3.67261290550232</v>
+        <v>3.6726129055023198</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>11</v>
       </c>
       <c r="B10" s="5">
-        <v>-1.20110249519348</v>
+        <v>-1.2011024951934799</v>
       </c>
       <c r="C10" s="5">
-        <v>1.88287019729614</v>
+        <v>1.8828701972961399</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>12</v>
       </c>
       <c r="B11" s="5">
-        <v>-0.980586171150208</v>
+        <v>-0.98058617115020796</v>
       </c>
       <c r="C11" s="5">
         <v>1.69350266456604</v>
@@ -4326,12 +4304,12 @@
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>13</v>
       </c>
       <c r="B12" s="5">
-        <v>-1.61539351940155</v>
+        <v>-1.6153935194015501</v>
       </c>
       <c r="C12" s="5">
         <v>1.75946080684662</v>
@@ -4340,12 +4318,12 @@
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>14</v>
       </c>
       <c r="B13" s="5">
-        <v>-2.15788316726685</v>
+        <v>-2.1578831672668501</v>
       </c>
       <c r="C13" s="5">
         <v>1.71334683895111</v>
@@ -4354,12 +4332,12 @@
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row r="14" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>15</v>
       </c>
       <c r="B14" s="5">
-        <v>-0.392157524824142</v>
+        <v>-0.39215752482414201</v>
       </c>
       <c r="C14" s="5">
         <v>1.13236379623413</v>
@@ -4368,71 +4346,71 @@
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>16</v>
       </c>
       <c r="B15" s="5">
-        <v>0.441741079092026</v>
+        <v>0.44174107909202598</v>
       </c>
       <c r="C15" s="5">
-        <v>0.991861939430237</v>
+        <v>0.99186193943023704</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>17</v>
       </c>
       <c r="B16" s="5">
-        <v>0.609154760837555</v>
+        <v>0.60915476083755504</v>
       </c>
       <c r="C16" s="5">
-        <v>0.935362756252289</v>
+        <v>0.93536275625228904</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>18</v>
       </c>
       <c r="B17" s="5">
-        <v>0.618286430835724</v>
+        <v>0.61828643083572399</v>
       </c>
       <c r="C17" s="5">
-        <v>0.955788493156433</v>
+        <v>0.95578849315643299</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>19</v>
       </c>
       <c r="B18" s="5">
-        <v>0.973895072937012</v>
+        <v>0.97389507293701205</v>
       </c>
       <c r="C18" s="5">
-        <v>0.864857912063599</v>
+        <v>0.86485791206359897</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>20</v>
       </c>
       <c r="B19" s="5">
-        <v>1.24681770801544</v>
+        <v>1.2468177080154399</v>
       </c>
       <c r="C19" s="5">
-        <v>0.73221880197525</v>
+        <v>0.73221880197525002</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>160</v>
@@ -4444,7 +4422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4452,15 +4430,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4474,35 +4452,35 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>-0.827269732952118</v>
+        <v>-0.82726973295211803</v>
       </c>
       <c r="C2" s="5">
-        <v>0.4034623503685</v>
+        <v>0.40346235036849998</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>4</v>
       </c>
       <c r="B3" s="5">
-        <v>-0.46466252207756</v>
+        <v>-0.46466252207755998</v>
       </c>
       <c r="C3" s="5">
-        <v>0.281463444232941</v>
+        <v>0.28146344423294101</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -4510,32 +4488,32 @@
         <v>-0.112981893122196</v>
       </c>
       <c r="C4" s="5">
-        <v>0.187023773789406</v>
+        <v>0.18702377378940599</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>6</v>
       </c>
       <c r="B5" s="5">
-        <v>0.111784629523754</v>
+        <v>0.11178462952375399</v>
       </c>
       <c r="C5" s="5">
-        <v>0.149606332182884</v>
+        <v>0.14960633218288399</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>0.157487809658051</v>
+        <v>0.15748780965805101</v>
       </c>
       <c r="C6" s="5">
         <v>0.116812318563461</v>
@@ -4544,7 +4522,7 @@
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>8</v>
       </c>
@@ -4558,77 +4536,77 @@
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>9</v>
       </c>
       <c r="B8" s="5">
-        <v>0.163263827562332</v>
+        <v>0.16326382756233199</v>
       </c>
       <c r="C8" s="5">
-        <v>0.0907636433839798</v>
+        <v>9.0763643383979797E-2</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10</v>
       </c>
       <c r="B9" s="5">
-        <v>0.12628673017025</v>
+        <v>0.12628673017024999</v>
       </c>
       <c r="C9" s="5">
-        <v>0.077578030526638</v>
+        <v>7.7578030526638003E-2</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>11</v>
       </c>
       <c r="B10" s="5">
-        <v>0.143460765480995</v>
+        <v>0.14346076548099501</v>
       </c>
       <c r="C10" s="5">
-        <v>0.0719408690929413</v>
+        <v>7.1940869092941298E-2</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>12</v>
       </c>
       <c r="B11" s="5">
-        <v>0.140747502446175</v>
+        <v>0.14074750244617501</v>
       </c>
       <c r="C11" s="5">
-        <v>0.0674747601151466</v>
+        <v>6.7474760115146595E-2</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>13</v>
       </c>
       <c r="B12" s="5">
-        <v>0.163064137101173</v>
+        <v>0.16306413710117301</v>
       </c>
       <c r="C12" s="5">
-        <v>0.0636573806405067</v>
+        <v>6.3657380640506703E-2</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>14</v>
       </c>
@@ -4636,27 +4614,27 @@
         <v>0.115477159619331</v>
       </c>
       <c r="C13" s="5">
-        <v>0.0640527904033661</v>
+        <v>6.4052790403366103E-2</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row r="14" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>15</v>
       </c>
       <c r="B14" s="5">
-        <v>0.161561712622643</v>
+        <v>0.16156171262264299</v>
       </c>
       <c r="C14" s="5">
-        <v>0.0607743747532368</v>
+        <v>6.0774374753236798E-2</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>16</v>
       </c>
@@ -4664,63 +4642,63 @@
         <v>0.202340468764305</v>
       </c>
       <c r="C15" s="5">
-        <v>0.0532064586877823</v>
+        <v>5.3206458687782301E-2</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>17</v>
       </c>
       <c r="B16" s="5">
-        <v>0.247819244861603</v>
+        <v>0.24781924486160301</v>
       </c>
       <c r="C16" s="5">
-        <v>0.0507198572158814</v>
+        <v>5.0719857215881403E-2</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>18</v>
       </c>
       <c r="B17" s="5">
-        <v>0.28363761305809</v>
+        <v>0.28363761305808999</v>
       </c>
       <c r="C17" s="5">
-        <v>0.0509088635444641</v>
+        <v>5.0908863544464097E-2</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>19</v>
       </c>
       <c r="B18" s="5">
-        <v>0.312586486339569</v>
+        <v>0.31258648633956898</v>
       </c>
       <c r="C18" s="5">
-        <v>0.0478356927633286</v>
+        <v>4.7835692763328601E-2</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>20</v>
       </c>
       <c r="B19" s="5">
-        <v>0.337721645832062</v>
+        <v>0.33772164583206199</v>
       </c>
       <c r="C19" s="5">
-        <v>0.0442089401185513</v>
+        <v>4.4208940118551303E-2</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>159</v>
@@ -4732,7 +4710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4740,15 +4718,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4762,12 +4740,12 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>-0.454031735658646</v>
+        <v>-0.45403173565864602</v>
       </c>
       <c r="C2" s="5">
         <v>2.13246417045593</v>
@@ -4776,7 +4754,7 @@
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>4</v>
       </c>
@@ -4790,21 +4768,21 @@
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>5</v>
       </c>
       <c r="B4" s="5">
-        <v>-1.49370396137238</v>
+        <v>-1.4937039613723799</v>
       </c>
       <c r="C4" s="5">
-        <v>0.703744649887085</v>
+        <v>0.70374464988708496</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>6</v>
       </c>
@@ -4812,18 +4790,18 @@
         <v>-1.14219641685486</v>
       </c>
       <c r="C5" s="5">
-        <v>0.543445765972137</v>
+        <v>0.54344576597213701</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>-0.698289811611176</v>
+        <v>-0.69828981161117598</v>
       </c>
       <c r="C6" s="5">
         <v>0.461721271276474</v>
@@ -4832,7 +4810,7 @@
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>8</v>
       </c>
@@ -4840,27 +4818,27 @@
         <v>-0.333210289478302</v>
       </c>
       <c r="C7" s="5">
-        <v>0.405513167381287</v>
+        <v>0.40551316738128701</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>9</v>
       </c>
       <c r="B8" s="5">
-        <v>-0.0840047970414162</v>
+        <v>-8.4004797041416196E-2</v>
       </c>
       <c r="C8" s="5">
-        <v>0.3205626308918</v>
+        <v>0.32056263089179998</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10</v>
       </c>
@@ -4874,49 +4852,49 @@
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>11</v>
       </c>
       <c r="B10" s="5">
-        <v>0.0696602016687393</v>
+        <v>6.9660201668739305E-2</v>
       </c>
       <c r="C10" s="5">
-        <v>0.266277343034744</v>
+        <v>0.26627734303474399</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>12</v>
       </c>
       <c r="B11" s="5">
-        <v>0.105752572417259</v>
+        <v>0.10575257241725899</v>
       </c>
       <c r="C11" s="5">
-        <v>0.24410679936409</v>
+        <v>0.24410679936408999</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>13</v>
       </c>
       <c r="B12" s="5">
-        <v>0.0685887038707733</v>
+        <v>6.8588703870773302E-2</v>
       </c>
       <c r="C12" s="5">
-        <v>0.216418012976646</v>
+        <v>0.21641801297664601</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>14</v>
       </c>
@@ -4924,46 +4902,46 @@
         <v>0.2115708142519</v>
       </c>
       <c r="C13" s="5">
-        <v>0.1945611089468</v>
+        <v>0.19456110894680001</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row r="14" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>15</v>
       </c>
       <c r="B14" s="5">
-        <v>0.0203926879912615</v>
+        <v>2.03926879912615E-2</v>
       </c>
       <c r="C14" s="5">
-        <v>0.180436849594116</v>
+        <v>0.18043684959411599</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>16</v>
       </c>
       <c r="B15" s="5">
-        <v>-0.107318677008152</v>
+        <v>-0.10731867700815199</v>
       </c>
       <c r="C15" s="5">
-        <v>0.165997266769409</v>
+        <v>0.16599726676940901</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>17</v>
       </c>
       <c r="B16" s="5">
-        <v>-0.206329196691513</v>
+        <v>-0.20632919669151301</v>
       </c>
       <c r="C16" s="5">
         <v>0.157282754778862</v>
@@ -4972,43 +4950,43 @@
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>18</v>
       </c>
       <c r="B17" s="5">
-        <v>-0.255992770195007</v>
+        <v>-0.25599277019500699</v>
       </c>
       <c r="C17" s="5">
-        <v>0.151488289237022</v>
+        <v>0.15148828923702201</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>19</v>
       </c>
       <c r="B18" s="5">
-        <v>-0.271796017885208</v>
+        <v>-0.27179601788520802</v>
       </c>
       <c r="C18" s="5">
-        <v>0.138000637292862</v>
+        <v>0.13800063729286199</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>20</v>
       </c>
       <c r="B19" s="5">
-        <v>-0.264692276716232</v>
+        <v>-0.26469227671623202</v>
       </c>
       <c r="C19" s="5">
-        <v>0.120926052331924</v>
+        <v>0.12092605233192399</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>158</v>
